--- a/sinkhole_data/구별/수영구.xlsx
+++ b/sinkhole_data/구별/수영구.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF10D6D7-8040-48E1-918F-2809276A34A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001044D4-525B-4473-9644-344F8CBB9A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7430" yWindow="1890" windowWidth="11630" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>다짐(되메우기) 불량</t>
@@ -190,15 +190,15 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -211,7 +211,7 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lon</t>
@@ -228,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,13 +252,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -274,25 +267,8 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
@@ -328,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -352,24 +328,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -385,28 +344,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,9 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -727,28 +687,30 @@
     <col min="5" max="5" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -765,25 +727,25 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1.5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1.5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -791,31 +753,31 @@
       <c r="A3" s="1">
         <v>43300</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.8</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>129.12400703220601</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>35.156026674117697</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
